--- a/data/ucod/united_states/comparable_data_since_1959.xlsx
+++ b/data/ucod/united_states/comparable_data_since_1959.xlsx
@@ -2277,13 +2277,13 @@
         <v>1902106</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>49928</v>
+        <v>51232</v>
       </c>
       <c r="E20">
-        <v>2643</v>
+        <v>2972</v>
       </c>
       <c r="F20">
         <v>1687</v>
@@ -2298,10 +2298,10 @@
         <v>8525</v>
       </c>
       <c r="J20">
-        <v>53899</v>
+        <v>53906</v>
       </c>
       <c r="K20">
-        <v>385721</v>
+        <v>386990</v>
       </c>
       <c r="L20">
         <v>23427</v>
@@ -2310,7 +2310,7 @@
         <v>33024</v>
       </c>
       <c r="N20">
-        <v>49747</v>
+        <v>49740</v>
       </c>
       <c r="O20">
         <v>28758</v>
@@ -2322,7 +2322,7 @@
         <v>30879</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S20">
         <v>16</v>
@@ -2340,7 +2340,7 @@
         <v>340</v>
       </c>
       <c r="X20">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="Y20">
         <v>196</v>
@@ -2349,7 +2349,7 @@
         <v>127</v>
       </c>
       <c r="AA20">
-        <v>5092</v>
+        <v>5698</v>
       </c>
       <c r="AB20">
         <v>22374</v>
@@ -2372,13 +2372,13 @@
         <v>1930627</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>54302</v>
+        <v>58355</v>
       </c>
       <c r="E21">
-        <v>2608</v>
+        <v>2919</v>
       </c>
       <c r="F21">
         <v>1718</v>
@@ -2393,10 +2393,10 @@
         <v>8878</v>
       </c>
       <c r="J21">
-        <v>53433</v>
+        <v>53438</v>
       </c>
       <c r="K21">
-        <v>395993</v>
+        <v>397323</v>
       </c>
       <c r="L21">
         <v>22055</v>
@@ -2405,7 +2405,7 @@
         <v>33878</v>
       </c>
       <c r="N21">
-        <v>52658</v>
+        <v>52653</v>
       </c>
       <c r="O21">
         <v>28951</v>
@@ -2417,7 +2417,7 @@
         <v>30105</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21">
         <v>11</v>
@@ -2435,7 +2435,7 @@
         <v>403</v>
       </c>
       <c r="X21">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="Y21">
         <v>169</v>
@@ -2444,7 +2444,7 @@
         <v>139</v>
       </c>
       <c r="AA21">
-        <v>4903</v>
+        <v>5493</v>
       </c>
       <c r="AB21">
         <v>21894</v>

--- a/data/ucod/united_states/comparable_data_since_1959.xlsx
+++ b/data/ucod/united_states/comparable_data_since_1959.xlsx
@@ -461,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,97 +561,5607 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1">
+        <v>1959</v>
+      </c>
+      <c r="B2">
+        <v>1660172</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>55159</v>
+      </c>
+      <c r="E2">
+        <v>11472</v>
+      </c>
+      <c r="F2">
+        <v>7780</v>
+      </c>
+      <c r="G2">
+        <v>641342</v>
+      </c>
+      <c r="H2">
+        <v>191666</v>
+      </c>
+      <c r="I2">
+        <v>14170</v>
+      </c>
+      <c r="J2">
+        <v>54287</v>
+      </c>
+      <c r="K2">
+        <v>260627</v>
+      </c>
+      <c r="L2">
+        <v>68213</v>
+      </c>
+      <c r="M2">
+        <v>28160</v>
+      </c>
+      <c r="N2">
+        <v>37998</v>
+      </c>
+      <c r="O2">
+        <v>34668</v>
+      </c>
+      <c r="P2">
+        <v>21856</v>
+      </c>
+      <c r="Q2">
+        <v>19284</v>
+      </c>
+      <c r="R2">
+        <v>23</v>
+      </c>
+      <c r="S2">
+        <v>385</v>
+      </c>
+      <c r="T2">
+        <v>269</v>
+      </c>
+      <c r="U2">
+        <v>72</v>
+      </c>
+      <c r="V2">
+        <v>4910</v>
+      </c>
+      <c r="W2">
+        <v>700</v>
+      </c>
+      <c r="X2">
+        <v>454</v>
+      </c>
+      <c r="Y2">
+        <v>3074</v>
+      </c>
+      <c r="Z2">
+        <v>798</v>
+      </c>
+      <c r="AA2">
+        <v>13149</v>
+      </c>
+      <c r="AB2">
+        <v>15447</v>
+      </c>
+      <c r="AC2">
+        <v>10707</v>
+      </c>
+      <c r="AD2">
+        <v>18677</v>
+      </c>
+      <c r="AE2">
+        <v>8177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1">
+        <v>1960</v>
+      </c>
+      <c r="B3">
+        <v>1711982</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>66803</v>
+      </c>
+      <c r="E3">
+        <v>10866</v>
+      </c>
+      <c r="F3">
+        <v>7932</v>
+      </c>
+      <c r="G3">
+        <v>660981</v>
+      </c>
+      <c r="H3">
+        <v>193588</v>
+      </c>
+      <c r="I3">
+        <v>13684</v>
+      </c>
+      <c r="J3">
+        <v>55669</v>
+      </c>
+      <c r="K3">
+        <v>267627</v>
+      </c>
+      <c r="L3">
+        <v>67094</v>
+      </c>
+      <c r="M3">
+        <v>29971</v>
+      </c>
+      <c r="N3">
+        <v>38137</v>
+      </c>
+      <c r="O3">
+        <v>35876</v>
+      </c>
+      <c r="P3">
+        <v>21860</v>
+      </c>
+      <c r="Q3">
+        <v>20296</v>
+      </c>
+      <c r="R3">
+        <v>21</v>
+      </c>
+      <c r="S3">
+        <v>380</v>
+      </c>
+      <c r="T3">
+        <v>118</v>
+      </c>
+      <c r="U3">
+        <v>69</v>
+      </c>
+      <c r="V3">
+        <v>4869</v>
+      </c>
+      <c r="W3">
+        <v>644</v>
+      </c>
+      <c r="X3">
+        <v>230</v>
+      </c>
+      <c r="Y3">
+        <v>2945</v>
+      </c>
+      <c r="Z3">
+        <v>734</v>
+      </c>
+      <c r="AA3">
+        <v>12662</v>
+      </c>
+      <c r="AB3">
+        <v>17820</v>
+      </c>
+      <c r="AC3">
+        <v>11360</v>
+      </c>
+      <c r="AD3">
+        <v>19041</v>
+      </c>
+      <c r="AE3">
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="1">
+        <v>1961</v>
+      </c>
+      <c r="B4">
+        <v>1701522</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>55175</v>
+      </c>
+      <c r="E4">
+        <v>9938</v>
+      </c>
+      <c r="F4">
+        <v>7820</v>
+      </c>
+      <c r="G4">
+        <v>662788</v>
+      </c>
+      <c r="H4">
+        <v>192951</v>
+      </c>
+      <c r="I4">
+        <v>13180</v>
+      </c>
+      <c r="J4">
+        <v>54158</v>
+      </c>
+      <c r="K4">
+        <v>273502</v>
+      </c>
+      <c r="L4">
+        <v>65679</v>
+      </c>
+      <c r="M4">
+        <v>30098</v>
+      </c>
+      <c r="N4">
+        <v>38091</v>
+      </c>
+      <c r="O4">
+        <v>35388</v>
+      </c>
+      <c r="P4">
+        <v>21922</v>
+      </c>
+      <c r="Q4">
+        <v>20737</v>
+      </c>
+      <c r="R4">
+        <v>17</v>
+      </c>
+      <c r="S4">
+        <v>434</v>
+      </c>
+      <c r="T4">
+        <v>76</v>
+      </c>
+      <c r="U4">
+        <v>68</v>
+      </c>
+      <c r="V4">
+        <v>4533</v>
+      </c>
+      <c r="W4">
+        <v>586</v>
+      </c>
+      <c r="X4">
+        <v>90</v>
+      </c>
+      <c r="Y4">
+        <v>2850</v>
+      </c>
+      <c r="Z4">
+        <v>608</v>
+      </c>
+      <c r="AA4">
+        <v>12185</v>
+      </c>
+      <c r="AB4">
+        <v>18212</v>
+      </c>
+      <c r="AC4">
+        <v>11540</v>
+      </c>
+      <c r="AD4">
+        <v>18999</v>
+      </c>
+      <c r="AE4">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1">
+        <v>1962</v>
+      </c>
+      <c r="B5">
+        <v>1756720</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>59995</v>
+      </c>
+      <c r="E5">
+        <v>9506</v>
+      </c>
+      <c r="F5">
+        <v>8194</v>
+      </c>
+      <c r="G5">
+        <v>687462</v>
+      </c>
+      <c r="H5">
+        <v>197451</v>
+      </c>
+      <c r="I5">
+        <v>12945</v>
+      </c>
+      <c r="J5">
+        <v>56335</v>
+      </c>
+      <c r="K5">
+        <v>278562</v>
+      </c>
+      <c r="L5">
+        <v>64205</v>
+      </c>
+      <c r="M5">
+        <v>31222</v>
+      </c>
+      <c r="N5">
+        <v>40804</v>
+      </c>
+      <c r="O5">
+        <v>36848</v>
+      </c>
+      <c r="P5">
+        <v>21192</v>
+      </c>
+      <c r="Q5">
+        <v>21824</v>
+      </c>
+      <c r="R5">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <v>408</v>
+      </c>
+      <c r="T5">
+        <v>83</v>
+      </c>
+      <c r="U5">
+        <v>41</v>
+      </c>
+      <c r="V5">
+        <v>4571</v>
+      </c>
+      <c r="W5">
+        <v>649</v>
+      </c>
+      <c r="X5">
+        <v>60</v>
+      </c>
+      <c r="Y5">
+        <v>2811</v>
+      </c>
+      <c r="Z5">
+        <v>550</v>
+      </c>
+      <c r="AA5">
+        <v>12497</v>
+      </c>
+      <c r="AB5">
+        <v>20811</v>
+      </c>
+      <c r="AC5">
+        <v>12228</v>
+      </c>
+      <c r="AD5">
+        <v>20207</v>
+      </c>
+      <c r="AE5">
+        <v>9013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="1">
+        <v>1963</v>
+      </c>
+      <c r="B6">
+        <v>1813549</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>70761</v>
+      </c>
+      <c r="E6">
+        <v>9311</v>
+      </c>
+      <c r="F6">
+        <v>8246</v>
+      </c>
+      <c r="G6">
+        <v>707285</v>
+      </c>
+      <c r="H6">
+        <v>201166</v>
+      </c>
+      <c r="I6">
+        <v>12677</v>
+      </c>
+      <c r="J6">
+        <v>57105</v>
+      </c>
+      <c r="K6">
+        <v>285362</v>
+      </c>
+      <c r="L6">
+        <v>62688</v>
+      </c>
+      <c r="M6">
+        <v>32465</v>
+      </c>
+      <c r="N6">
+        <v>43564</v>
+      </c>
+      <c r="O6">
+        <v>37429</v>
+      </c>
+      <c r="P6">
+        <v>20817</v>
+      </c>
+      <c r="Q6">
+        <v>22456</v>
+      </c>
+      <c r="R6">
+        <v>21</v>
+      </c>
+      <c r="S6">
+        <v>364</v>
+      </c>
+      <c r="T6">
+        <v>115</v>
+      </c>
+      <c r="U6">
+        <v>45</v>
+      </c>
+      <c r="V6">
+        <v>4411</v>
+      </c>
+      <c r="W6">
+        <v>733</v>
+      </c>
+      <c r="X6">
+        <v>41</v>
+      </c>
+      <c r="Y6">
+        <v>2666</v>
+      </c>
+      <c r="Z6">
+        <v>552</v>
+      </c>
+      <c r="AA6">
+        <v>12694</v>
+      </c>
+      <c r="AB6">
+        <v>24501</v>
+      </c>
+      <c r="AC6">
+        <v>12161</v>
+      </c>
+      <c r="AD6">
+        <v>20825</v>
+      </c>
+      <c r="AE6">
+        <v>9225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="1">
+        <v>1964</v>
+      </c>
+      <c r="B7">
+        <v>1798051</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>59451</v>
+      </c>
+      <c r="E7">
+        <v>8303</v>
+      </c>
+      <c r="F7">
+        <v>8178</v>
+      </c>
+      <c r="G7">
+        <v>699357</v>
+      </c>
+      <c r="H7">
+        <v>198209</v>
+      </c>
+      <c r="I7">
+        <v>12414</v>
+      </c>
+      <c r="J7">
+        <v>56913</v>
+      </c>
+      <c r="K7">
+        <v>289577</v>
+      </c>
+      <c r="L7">
+        <v>60322</v>
+      </c>
+      <c r="M7">
+        <v>32279</v>
+      </c>
+      <c r="N7">
+        <v>46930</v>
+      </c>
+      <c r="O7">
+        <v>37176</v>
+      </c>
+      <c r="P7">
+        <v>20288</v>
+      </c>
+      <c r="Q7">
+        <v>23164</v>
+      </c>
+      <c r="R7">
+        <v>14</v>
+      </c>
+      <c r="S7">
+        <v>421</v>
+      </c>
+      <c r="T7">
+        <v>93</v>
+      </c>
+      <c r="U7">
+        <v>42</v>
+      </c>
+      <c r="V7">
+        <v>4245</v>
+      </c>
+      <c r="W7">
+        <v>750</v>
+      </c>
+      <c r="X7">
+        <v>17</v>
+      </c>
+      <c r="Y7">
+        <v>2619</v>
+      </c>
+      <c r="Z7">
+        <v>509</v>
+      </c>
+      <c r="AA7">
+        <v>12191</v>
+      </c>
+      <c r="AB7">
+        <v>24649</v>
+      </c>
+      <c r="AC7">
+        <v>10969</v>
+      </c>
+      <c r="AD7">
+        <v>20588</v>
+      </c>
+      <c r="AE7">
+        <v>9814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1">
+        <v>1965</v>
+      </c>
+      <c r="B8">
+        <v>1828136</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>61903</v>
+      </c>
+      <c r="E8">
+        <v>7934</v>
+      </c>
+      <c r="F8">
+        <v>7899</v>
+      </c>
+      <c r="G8">
+        <v>711607</v>
+      </c>
+      <c r="H8">
+        <v>201057</v>
+      </c>
+      <c r="I8">
+        <v>11920</v>
+      </c>
+      <c r="J8">
+        <v>58841</v>
+      </c>
+      <c r="K8">
+        <v>297588</v>
+      </c>
+      <c r="L8">
+        <v>55398</v>
+      </c>
+      <c r="M8">
+        <v>33174</v>
+      </c>
+      <c r="N8">
+        <v>49163</v>
+      </c>
+      <c r="O8">
+        <v>38102</v>
+      </c>
+      <c r="P8">
+        <v>19512</v>
+      </c>
+      <c r="Q8">
+        <v>24715</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>276</v>
+      </c>
+      <c r="T8">
+        <v>55</v>
+      </c>
+      <c r="U8">
+        <v>18</v>
+      </c>
+      <c r="V8">
+        <v>3810</v>
+      </c>
+      <c r="W8">
+        <v>890</v>
+      </c>
+      <c r="X8">
+        <v>16</v>
+      </c>
+      <c r="Y8">
+        <v>2434</v>
+      </c>
+      <c r="Z8">
+        <v>483</v>
+      </c>
+      <c r="AA8">
+        <v>11667</v>
+      </c>
+      <c r="AB8">
+        <v>27952</v>
+      </c>
+      <c r="AC8">
+        <v>10424</v>
+      </c>
+      <c r="AD8">
+        <v>21507</v>
+      </c>
+      <c r="AE8">
+        <v>10712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="1">
+        <v>1966</v>
+      </c>
+      <c r="B9">
+        <v>1863149</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>63615</v>
+      </c>
+      <c r="E9">
+        <v>7625</v>
+      </c>
+      <c r="F9">
+        <v>7552</v>
+      </c>
+      <c r="G9">
+        <v>726551</v>
+      </c>
+      <c r="H9">
+        <v>204841</v>
+      </c>
+      <c r="I9">
+        <v>11540</v>
+      </c>
+      <c r="J9">
+        <v>60522</v>
+      </c>
+      <c r="K9">
+        <v>303736</v>
+      </c>
+      <c r="L9">
+        <v>51644</v>
+      </c>
+      <c r="M9">
+        <v>34597</v>
+      </c>
+      <c r="N9">
+        <v>53041</v>
+      </c>
+      <c r="O9">
+        <v>38907</v>
+      </c>
+      <c r="P9">
+        <v>18158</v>
+      </c>
+      <c r="Q9">
+        <v>26692</v>
+      </c>
+      <c r="R9">
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <v>261</v>
+      </c>
+      <c r="T9">
+        <v>49</v>
+      </c>
+      <c r="U9">
+        <v>20</v>
+      </c>
+      <c r="V9">
+        <v>3336</v>
+      </c>
+      <c r="W9">
+        <v>876</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>2193</v>
+      </c>
+      <c r="Z9">
+        <v>456</v>
+      </c>
+      <c r="AA9">
+        <v>11380</v>
+      </c>
+      <c r="AB9">
+        <v>29740</v>
+      </c>
+      <c r="AC9">
+        <v>10321</v>
+      </c>
+      <c r="AD9">
+        <v>21281</v>
+      </c>
+      <c r="AE9">
+        <v>11606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B10">
+        <v>1851323</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>56892</v>
+      </c>
+      <c r="E10">
+        <v>6901</v>
+      </c>
+      <c r="F10">
+        <v>7504</v>
+      </c>
+      <c r="G10">
+        <v>720896</v>
+      </c>
+      <c r="H10">
+        <v>202184</v>
+      </c>
+      <c r="I10">
+        <v>10941</v>
+      </c>
+      <c r="J10">
+        <v>60245</v>
+      </c>
+      <c r="K10">
+        <v>310983</v>
+      </c>
+      <c r="L10">
+        <v>48314</v>
+      </c>
+      <c r="M10">
+        <v>35049</v>
+      </c>
+      <c r="N10">
+        <v>52924</v>
+      </c>
+      <c r="O10">
+        <v>37564</v>
+      </c>
+      <c r="P10">
+        <v>17328</v>
+      </c>
+      <c r="Q10">
+        <v>27816</v>
+      </c>
+      <c r="R10">
+        <v>12</v>
+      </c>
+      <c r="S10">
+        <v>81</v>
+      </c>
+      <c r="T10">
+        <v>37</v>
+      </c>
+      <c r="U10">
+        <v>32</v>
+      </c>
+      <c r="V10">
+        <v>2888</v>
+      </c>
+      <c r="W10">
+        <v>635</v>
+      </c>
+      <c r="X10">
+        <v>16</v>
+      </c>
+      <c r="Y10">
+        <v>2381</v>
+      </c>
+      <c r="Z10">
+        <v>376</v>
+      </c>
+      <c r="AA10">
+        <v>11151</v>
+      </c>
+      <c r="AB10">
+        <v>30318</v>
+      </c>
+      <c r="AC10">
+        <v>9825</v>
+      </c>
+      <c r="AD10">
+        <v>21325</v>
+      </c>
+      <c r="AE10">
+        <v>13425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B11">
+        <v>1930082</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>73492</v>
+      </c>
+      <c r="E11">
+        <v>6292</v>
+      </c>
+      <c r="F11">
+        <v>2589</v>
+      </c>
+      <c r="G11">
+        <v>744658</v>
+      </c>
+      <c r="H11">
+        <v>211390</v>
+      </c>
+      <c r="I11">
+        <v>9311</v>
+      </c>
+      <c r="J11">
+        <v>60002</v>
+      </c>
+      <c r="K11">
+        <v>318547</v>
+      </c>
+      <c r="L11">
+        <v>43840</v>
+      </c>
+      <c r="M11">
+        <v>38352</v>
+      </c>
+      <c r="N11">
+        <v>54862</v>
+      </c>
+      <c r="O11">
+        <v>33568</v>
+      </c>
+      <c r="P11">
+        <v>12267</v>
+      </c>
+      <c r="Q11">
+        <v>29183</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>24</v>
+      </c>
+      <c r="T11">
+        <v>36</v>
+      </c>
+      <c r="U11">
+        <v>30</v>
+      </c>
+      <c r="V11">
+        <v>2940</v>
+      </c>
+      <c r="W11">
+        <v>741</v>
+      </c>
+      <c r="X11">
+        <v>24</v>
+      </c>
+      <c r="Y11">
+        <v>586</v>
+      </c>
+      <c r="Z11">
+        <v>363</v>
+      </c>
+      <c r="AA11">
+        <v>9063</v>
+      </c>
+      <c r="AB11">
+        <v>33078</v>
+      </c>
+      <c r="AC11">
+        <v>9460</v>
+      </c>
+      <c r="AD11">
+        <v>21372</v>
+      </c>
+      <c r="AE11">
+        <v>14686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B12">
+        <v>1921990</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>68365</v>
+      </c>
+      <c r="E12">
+        <v>5567</v>
+      </c>
+      <c r="F12">
+        <v>2283</v>
+      </c>
+      <c r="G12">
+        <v>739265</v>
+      </c>
+      <c r="H12">
+        <v>207179</v>
+      </c>
+      <c r="I12">
+        <v>9417</v>
+      </c>
+      <c r="J12">
+        <v>60594</v>
+      </c>
+      <c r="K12">
+        <v>323092</v>
+      </c>
+      <c r="L12">
+        <v>43171</v>
+      </c>
+      <c r="M12">
+        <v>38541</v>
+      </c>
+      <c r="N12">
+        <v>55791</v>
+      </c>
+      <c r="O12">
+        <v>33063</v>
+      </c>
+      <c r="P12">
+        <v>12423</v>
+      </c>
+      <c r="Q12">
+        <v>29866</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>41</v>
+      </c>
+      <c r="T12">
+        <v>13</v>
+      </c>
+      <c r="U12">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>2612</v>
+      </c>
+      <c r="W12">
+        <v>744</v>
+      </c>
+      <c r="X12">
+        <v>13</v>
+      </c>
+      <c r="Y12">
+        <v>543</v>
+      </c>
+      <c r="Z12">
+        <v>320</v>
+      </c>
+      <c r="AA12">
+        <v>8426</v>
+      </c>
+      <c r="AB12">
+        <v>31144</v>
+      </c>
+      <c r="AC12">
+        <v>9312</v>
+      </c>
+      <c r="AD12">
+        <v>22364</v>
+      </c>
+      <c r="AE12">
+        <v>15477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1">
+        <v>1970</v>
+      </c>
+      <c r="B13">
+        <v>1922966</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>62777</v>
+      </c>
+      <c r="E13">
+        <v>5225</v>
+      </c>
+      <c r="F13">
+        <v>2246</v>
+      </c>
+      <c r="G13">
+        <v>736188</v>
+      </c>
+      <c r="H13">
+        <v>207277</v>
+      </c>
+      <c r="I13">
+        <v>8884</v>
+      </c>
+      <c r="J13">
+        <v>60231</v>
+      </c>
+      <c r="K13">
+        <v>330949</v>
+      </c>
+      <c r="L13">
+        <v>43244</v>
+      </c>
+      <c r="M13">
+        <v>38349</v>
+      </c>
+      <c r="N13">
+        <v>54845</v>
+      </c>
+      <c r="O13">
+        <v>31689</v>
+      </c>
+      <c r="P13">
+        <v>12308</v>
+      </c>
+      <c r="Q13">
+        <v>31421</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>89</v>
+      </c>
+      <c r="T13">
+        <v>12</v>
+      </c>
+      <c r="U13">
+        <v>30</v>
+      </c>
+      <c r="V13">
+        <v>2568</v>
+      </c>
+      <c r="W13">
+        <v>551</v>
+      </c>
+      <c r="X13">
+        <v>7</v>
+      </c>
+      <c r="Y13">
+        <v>461</v>
+      </c>
+      <c r="Z13">
+        <v>256</v>
+      </c>
+      <c r="AA13">
+        <v>8279</v>
+      </c>
+      <c r="AB13">
+        <v>30901</v>
+      </c>
+      <c r="AC13">
+        <v>8615</v>
+      </c>
+      <c r="AD13">
+        <v>23500</v>
+      </c>
+      <c r="AE13">
+        <v>16883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1">
+        <v>1971</v>
+      </c>
+      <c r="B14">
+        <v>1929476</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>57230</v>
+      </c>
+      <c r="E14">
+        <v>4507</v>
+      </c>
+      <c r="F14">
+        <v>2198</v>
+      </c>
+      <c r="G14">
+        <v>744023</v>
+      </c>
+      <c r="H14">
+        <v>209197</v>
+      </c>
+      <c r="I14">
+        <v>8452</v>
+      </c>
+      <c r="J14">
+        <v>59252</v>
+      </c>
+      <c r="K14">
+        <v>337590</v>
+      </c>
+      <c r="L14">
+        <v>38534</v>
+      </c>
+      <c r="M14">
+        <v>38275</v>
+      </c>
+      <c r="N14">
+        <v>54634</v>
+      </c>
+      <c r="O14">
+        <v>31530</v>
+      </c>
+      <c r="P14">
+        <v>11643</v>
+      </c>
+      <c r="Q14">
+        <v>31837</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>90</v>
+      </c>
+      <c r="T14">
+        <v>18</v>
+      </c>
+      <c r="U14">
+        <v>14</v>
+      </c>
+      <c r="V14">
+        <v>2474</v>
+      </c>
+      <c r="W14">
+        <v>511</v>
+      </c>
+      <c r="X14">
+        <v>18</v>
+      </c>
+      <c r="Y14">
+        <v>376</v>
+      </c>
+      <c r="Z14">
+        <v>230</v>
+      </c>
+      <c r="AA14">
+        <v>7843</v>
+      </c>
+      <c r="AB14">
+        <v>30304</v>
+      </c>
+      <c r="AC14">
+        <v>8129</v>
+      </c>
+      <c r="AD14">
+        <v>24122</v>
+      </c>
+      <c r="AE14">
+        <v>18816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B15">
+        <v>1966002</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>62612</v>
+      </c>
+      <c r="E15">
+        <v>4382</v>
+      </c>
+      <c r="F15">
+        <v>2040</v>
+      </c>
+      <c r="G15">
+        <v>756570</v>
+      </c>
+      <c r="H15">
+        <v>213448</v>
+      </c>
+      <c r="I15">
+        <v>8552</v>
+      </c>
+      <c r="J15">
+        <v>59368</v>
+      </c>
+      <c r="K15">
+        <v>345830</v>
+      </c>
+      <c r="L15">
+        <v>33848</v>
+      </c>
+      <c r="M15">
+        <v>38694</v>
+      </c>
+      <c r="N15">
+        <v>56528</v>
+      </c>
+      <c r="O15">
+        <v>32498</v>
+      </c>
+      <c r="P15">
+        <v>10818</v>
+      </c>
+      <c r="Q15">
+        <v>32604</v>
+      </c>
+      <c r="R15">
+        <v>8</v>
+      </c>
+      <c r="S15">
+        <v>24</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>12</v>
+      </c>
+      <c r="V15">
+        <v>2302</v>
+      </c>
+      <c r="W15">
+        <v>350</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>346</v>
+      </c>
+      <c r="Z15">
+        <v>180</v>
+      </c>
+      <c r="AA15">
+        <v>7756</v>
+      </c>
+      <c r="AB15">
+        <v>30788</v>
+      </c>
+      <c r="AC15">
+        <v>7924</v>
+      </c>
+      <c r="AD15">
+        <v>25028</v>
+      </c>
+      <c r="AE15">
+        <v>19676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B16">
+        <v>1975126</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>62599</v>
+      </c>
+      <c r="E16">
+        <v>3876</v>
+      </c>
+      <c r="F16">
+        <v>2096</v>
+      </c>
+      <c r="G16">
+        <v>757802</v>
+      </c>
+      <c r="H16">
+        <v>214419</v>
+      </c>
+      <c r="I16">
+        <v>8342</v>
+      </c>
+      <c r="J16">
+        <v>60538</v>
+      </c>
+      <c r="K16">
+        <v>351294</v>
+      </c>
+      <c r="L16">
+        <v>30540</v>
+      </c>
+      <c r="M16">
+        <v>38225</v>
+      </c>
+      <c r="N16">
+        <v>55759</v>
+      </c>
+      <c r="O16">
+        <v>32628</v>
+      </c>
+      <c r="P16">
+        <v>10465</v>
+      </c>
+      <c r="Q16">
+        <v>33377</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>23</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>2328</v>
+      </c>
+      <c r="W16">
+        <v>331</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>393</v>
+      </c>
+      <c r="Z16">
+        <v>183</v>
+      </c>
+      <c r="AA16">
+        <v>7431</v>
+      </c>
+      <c r="AB16">
+        <v>29733</v>
+      </c>
+      <c r="AC16">
+        <v>7696</v>
+      </c>
+      <c r="AD16">
+        <v>25137</v>
+      </c>
+      <c r="AE16">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1">
+        <v>1974</v>
+      </c>
+      <c r="B17">
+        <v>1936476</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>54810</v>
+      </c>
+      <c r="E17">
+        <v>3521</v>
+      </c>
+      <c r="F17">
+        <v>2014</v>
+      </c>
+      <c r="G17">
+        <v>738866</v>
+      </c>
+      <c r="H17">
+        <v>207544</v>
+      </c>
+      <c r="I17">
+        <v>8076</v>
+      </c>
+      <c r="J17">
+        <v>58449</v>
+      </c>
+      <c r="K17">
+        <v>360684</v>
+      </c>
+      <c r="L17">
+        <v>28820</v>
+      </c>
+      <c r="M17">
+        <v>37350</v>
+      </c>
+      <c r="N17">
+        <v>46629</v>
+      </c>
+      <c r="O17">
+        <v>32243</v>
+      </c>
+      <c r="P17">
+        <v>10172</v>
+      </c>
+      <c r="Q17">
+        <v>33345</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17">
+        <v>14</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>2262</v>
+      </c>
+      <c r="W17">
+        <v>307</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>300</v>
+      </c>
+      <c r="Z17">
+        <v>175</v>
+      </c>
+      <c r="AA17">
+        <v>6896</v>
+      </c>
+      <c r="AB17">
+        <v>26898</v>
+      </c>
+      <c r="AC17">
+        <v>7076</v>
+      </c>
+      <c r="AD17">
+        <v>25708</v>
+      </c>
+      <c r="AE17">
+        <v>21513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>1975</v>
+      </c>
+      <c r="B18">
+        <v>1895135</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>55712</v>
+      </c>
+      <c r="E18">
+        <v>3336</v>
+      </c>
+      <c r="F18">
+        <v>1831</v>
+      </c>
+      <c r="G18">
+        <v>717000</v>
+      </c>
+      <c r="H18">
+        <v>194162</v>
+      </c>
+      <c r="I18">
+        <v>8077</v>
+      </c>
+      <c r="J18">
+        <v>57441</v>
+      </c>
+      <c r="K18">
+        <v>365952</v>
+      </c>
+      <c r="L18">
+        <v>26647</v>
+      </c>
+      <c r="M18">
+        <v>35251</v>
+      </c>
+      <c r="N18">
+        <v>46032</v>
+      </c>
+      <c r="O18">
+        <v>28894</v>
+      </c>
+      <c r="P18">
+        <v>9960</v>
+      </c>
+      <c r="Q18">
+        <v>31655</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>20</v>
+      </c>
+      <c r="T18">
+        <v>8</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>2015</v>
+      </c>
+      <c r="W18">
+        <v>308</v>
+      </c>
+      <c r="X18">
+        <v>9</v>
+      </c>
+      <c r="Y18">
+        <v>273</v>
+      </c>
+      <c r="Z18">
+        <v>155</v>
+      </c>
+      <c r="AA18">
+        <v>6303</v>
+      </c>
+      <c r="AB18">
+        <v>25489</v>
+      </c>
+      <c r="AC18">
+        <v>6754</v>
+      </c>
+      <c r="AD18">
+        <v>27094</v>
+      </c>
+      <c r="AE18">
+        <v>21350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B19">
+        <v>1911907</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>61917</v>
+      </c>
+      <c r="E19">
+        <v>3134</v>
+      </c>
+      <c r="F19">
+        <v>1742</v>
+      </c>
+      <c r="G19">
+        <v>724812</v>
+      </c>
+      <c r="H19">
+        <v>188767</v>
+      </c>
+      <c r="I19">
+        <v>8550</v>
+      </c>
+      <c r="J19">
+        <v>53948</v>
+      </c>
+      <c r="K19">
+        <v>377631</v>
+      </c>
+      <c r="L19">
+        <v>24838</v>
+      </c>
+      <c r="M19">
+        <v>34532</v>
+      </c>
+      <c r="N19">
+        <v>47268</v>
+      </c>
+      <c r="O19">
+        <v>29377</v>
+      </c>
+      <c r="P19">
+        <v>9655</v>
+      </c>
+      <c r="Q19">
+        <v>31478</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>12</v>
+      </c>
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <v>7</v>
+      </c>
+      <c r="V19">
+        <v>1941</v>
+      </c>
+      <c r="W19">
+        <v>331</v>
+      </c>
+      <c r="X19">
+        <v>16</v>
+      </c>
+      <c r="Y19">
+        <v>225</v>
+      </c>
+      <c r="Z19">
+        <v>149</v>
+      </c>
+      <c r="AA19">
+        <v>6135</v>
+      </c>
+      <c r="AB19">
+        <v>24421</v>
+      </c>
+      <c r="AC19">
+        <v>6436</v>
+      </c>
+      <c r="AD19">
+        <v>26869</v>
+      </c>
+      <c r="AE19">
+        <v>19587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B20">
+        <v>1902106</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>51232</v>
+      </c>
+      <c r="E20">
+        <v>2972</v>
+      </c>
+      <c r="F20">
+        <v>1687</v>
+      </c>
+      <c r="G20">
+        <v>719828</v>
+      </c>
+      <c r="H20">
+        <v>182076</v>
+      </c>
+      <c r="I20">
+        <v>8525</v>
+      </c>
+      <c r="J20">
+        <v>53906</v>
+      </c>
+      <c r="K20">
+        <v>386990</v>
+      </c>
+      <c r="L20">
+        <v>23427</v>
+      </c>
+      <c r="M20">
+        <v>33024</v>
+      </c>
+      <c r="N20">
+        <v>49740</v>
+      </c>
+      <c r="O20">
+        <v>28758</v>
+      </c>
+      <c r="P20">
+        <v>9646</v>
+      </c>
+      <c r="Q20">
+        <v>30879</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>16</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <v>1858</v>
+      </c>
+      <c r="W20">
+        <v>340</v>
+      </c>
+      <c r="X20">
+        <v>16</v>
+      </c>
+      <c r="Y20">
+        <v>196</v>
+      </c>
+      <c r="Z20">
+        <v>127</v>
+      </c>
+      <c r="AA20">
+        <v>5698</v>
+      </c>
+      <c r="AB20">
+        <v>22374</v>
+      </c>
+      <c r="AC20">
+        <v>5909</v>
+      </c>
+      <c r="AD20">
+        <v>28715</v>
+      </c>
+      <c r="AE20">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>1978</v>
+      </c>
+      <c r="B21">
+        <v>1930627</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>58355</v>
+      </c>
+      <c r="E21">
+        <v>2919</v>
+      </c>
+      <c r="F21">
+        <v>1718</v>
+      </c>
+      <c r="G21">
+        <v>730562</v>
+      </c>
+      <c r="H21">
+        <v>175817</v>
+      </c>
+      <c r="I21">
+        <v>8878</v>
+      </c>
+      <c r="J21">
+        <v>53438</v>
+      </c>
+      <c r="K21">
+        <v>397323</v>
+      </c>
+      <c r="L21">
+        <v>22055</v>
+      </c>
+      <c r="M21">
+        <v>33878</v>
+      </c>
+      <c r="N21">
+        <v>52653</v>
+      </c>
+      <c r="O21">
+        <v>28951</v>
+      </c>
+      <c r="P21">
+        <v>9586</v>
+      </c>
+      <c r="Q21">
+        <v>30105</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>11</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>1884</v>
+      </c>
+      <c r="W21">
+        <v>403</v>
+      </c>
+      <c r="X21">
+        <v>13</v>
+      </c>
+      <c r="Y21">
+        <v>169</v>
+      </c>
+      <c r="Z21">
+        <v>139</v>
+      </c>
+      <c r="AA21">
+        <v>5493</v>
+      </c>
+      <c r="AB21">
+        <v>21894</v>
+      </c>
+      <c r="AC21">
+        <v>5551</v>
+      </c>
+      <c r="AD21">
+        <v>27336</v>
+      </c>
+      <c r="AE21">
+        <v>20498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>1979</v>
+      </c>
+      <c r="B22">
+        <v>1916776</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>45070</v>
+      </c>
+      <c r="E22">
+        <v>2012</v>
+      </c>
+      <c r="F22">
+        <v>152</v>
+      </c>
+      <c r="G22">
+        <v>734333</v>
+      </c>
+      <c r="H22">
+        <v>169630</v>
+      </c>
+      <c r="I22">
+        <v>15756</v>
+      </c>
+      <c r="J22">
+        <v>52095</v>
+      </c>
+      <c r="K22">
+        <v>403749</v>
+      </c>
+      <c r="L22">
+        <v>23489</v>
+      </c>
+      <c r="M22">
+        <v>33222</v>
+      </c>
+      <c r="N22">
+        <v>53786</v>
+      </c>
+      <c r="O22">
+        <v>28815</v>
+      </c>
+      <c r="P22">
+        <v>9395</v>
+      </c>
+      <c r="Q22">
+        <v>29759</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>298</v>
+      </c>
+      <c r="W22">
+        <v>406</v>
+      </c>
+      <c r="X22">
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <v>180</v>
+      </c>
+      <c r="Z22">
+        <v>114</v>
+      </c>
+      <c r="AA22">
+        <v>7280</v>
+      </c>
+      <c r="AB22">
+        <v>49965</v>
+      </c>
+      <c r="AC22">
+        <v>5908</v>
+      </c>
+      <c r="AD22">
+        <v>27236</v>
+      </c>
+      <c r="AE22">
+        <v>22625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B23">
+        <v>1993137</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>54666</v>
+      </c>
+      <c r="E23">
+        <v>1985</v>
+      </c>
+      <c r="F23">
+        <v>181</v>
+      </c>
+      <c r="G23">
+        <v>762274</v>
+      </c>
+      <c r="H23">
+        <v>170403</v>
+      </c>
+      <c r="I23">
+        <v>16778</v>
+      </c>
+      <c r="J23">
+        <v>52919</v>
+      </c>
+      <c r="K23">
+        <v>416973</v>
+      </c>
+      <c r="L23">
+        <v>22896</v>
+      </c>
+      <c r="M23">
+        <v>34872</v>
+      </c>
+      <c r="N23">
+        <v>53476</v>
+      </c>
+      <c r="O23">
+        <v>29457</v>
+      </c>
+      <c r="P23">
+        <v>9664</v>
+      </c>
+      <c r="Q23">
+        <v>30630</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>11</v>
+      </c>
+      <c r="T23">
+        <v>11</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>365</v>
+      </c>
+      <c r="W23">
+        <v>387</v>
+      </c>
+      <c r="X23">
+        <v>6</v>
+      </c>
+      <c r="Y23">
+        <v>155</v>
+      </c>
+      <c r="Z23">
+        <v>109</v>
+      </c>
+      <c r="AA23">
+        <v>7835</v>
+      </c>
+      <c r="AB23">
+        <v>56084</v>
+      </c>
+      <c r="AC23">
+        <v>6125</v>
+      </c>
+      <c r="AD23">
+        <v>26918</v>
+      </c>
+      <c r="AE23">
+        <v>24363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B24">
+        <v>1981317</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>54026</v>
+      </c>
+      <c r="E24">
+        <v>1866</v>
+      </c>
+      <c r="F24">
+        <v>205</v>
+      </c>
+      <c r="G24">
+        <v>754532</v>
+      </c>
+      <c r="H24">
+        <v>163730</v>
+      </c>
+      <c r="I24">
+        <v>17490</v>
+      </c>
+      <c r="J24">
+        <v>49651</v>
+      </c>
+      <c r="K24">
+        <v>422665</v>
+      </c>
+      <c r="L24">
+        <v>21753</v>
+      </c>
+      <c r="M24">
+        <v>34931</v>
+      </c>
+      <c r="N24">
+        <v>51608</v>
+      </c>
+      <c r="O24">
+        <v>27861</v>
+      </c>
+      <c r="P24">
+        <v>9228</v>
+      </c>
+      <c r="Q24">
+        <v>29185</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>381</v>
+      </c>
+      <c r="W24">
+        <v>447</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>134</v>
+      </c>
+      <c r="Z24">
+        <v>91</v>
+      </c>
+      <c r="AA24">
+        <v>7698</v>
+      </c>
+      <c r="AB24">
+        <v>58850</v>
+      </c>
+      <c r="AC24">
+        <v>6393</v>
+      </c>
+      <c r="AD24">
+        <v>27584</v>
+      </c>
+      <c r="AE24">
+        <v>23619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B25">
+        <v>1977961</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>48861</v>
+      </c>
+      <c r="E25">
+        <v>1816</v>
+      </c>
+      <c r="F25">
+        <v>209</v>
+      </c>
+      <c r="G25">
+        <v>756636</v>
+      </c>
+      <c r="H25">
+        <v>157543</v>
+      </c>
+      <c r="I25">
+        <v>18251</v>
+      </c>
+      <c r="J25">
+        <v>48836</v>
+      </c>
+      <c r="K25">
+        <v>434507</v>
+      </c>
+      <c r="L25">
+        <v>20810</v>
+      </c>
+      <c r="M25">
+        <v>34764</v>
+      </c>
+      <c r="N25">
+        <v>45768</v>
+      </c>
+      <c r="O25">
+        <v>26856</v>
+      </c>
+      <c r="P25">
+        <v>9390</v>
+      </c>
+      <c r="Q25">
+        <v>27658</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>341</v>
+      </c>
+      <c r="W25">
+        <v>359</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>129</v>
+      </c>
+      <c r="Z25">
+        <v>79</v>
+      </c>
+      <c r="AA25">
+        <v>7614</v>
+      </c>
+      <c r="AB25">
+        <v>59875</v>
+      </c>
+      <c r="AC25">
+        <v>6745</v>
+      </c>
+      <c r="AD25">
+        <v>28367</v>
+      </c>
+      <c r="AE25">
+        <v>22546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="1">
+        <v>1983</v>
+      </c>
+      <c r="B26">
+        <v>2022190</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>55899</v>
+      </c>
+      <c r="E26">
+        <v>1781</v>
+      </c>
+      <c r="F26">
+        <v>178</v>
+      </c>
+      <c r="G26">
+        <v>771532</v>
+      </c>
+      <c r="H26">
+        <v>155740</v>
+      </c>
+      <c r="I26">
+        <v>19028</v>
+      </c>
+      <c r="J26">
+        <v>48321</v>
+      </c>
+      <c r="K26">
+        <v>443435</v>
+      </c>
+      <c r="L26">
+        <v>19326</v>
+      </c>
+      <c r="M26">
+        <v>36280</v>
+      </c>
+      <c r="N26">
+        <v>44695</v>
+      </c>
+      <c r="O26">
+        <v>26378</v>
+      </c>
+      <c r="P26">
+        <v>9103</v>
+      </c>
+      <c r="Q26">
+        <v>27302</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>355</v>
+      </c>
+      <c r="W26">
+        <v>300</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>121</v>
+      </c>
+      <c r="Z26">
+        <v>87</v>
+      </c>
+      <c r="AA26">
+        <v>7743</v>
+      </c>
+      <c r="AB26">
+        <v>66298</v>
+      </c>
+      <c r="AC26">
+        <v>6377</v>
+      </c>
+      <c r="AD26">
+        <v>28342</v>
+      </c>
+      <c r="AE26">
+        <v>20265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="1">
+        <v>1984</v>
+      </c>
+      <c r="B27">
+        <v>2042304</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>58925</v>
+      </c>
+      <c r="E27">
+        <v>1733</v>
+      </c>
+      <c r="F27">
+        <v>202</v>
+      </c>
+      <c r="G27">
+        <v>766201</v>
+      </c>
+      <c r="H27">
+        <v>154497</v>
+      </c>
+      <c r="I27">
+        <v>20140</v>
+      </c>
+      <c r="J27">
+        <v>46905</v>
+      </c>
+      <c r="K27">
+        <v>453928</v>
+      </c>
+      <c r="L27">
+        <v>18901</v>
+      </c>
+      <c r="M27">
+        <v>35819</v>
+      </c>
+      <c r="N27">
+        <v>46517</v>
+      </c>
+      <c r="O27">
+        <v>24470</v>
+      </c>
+      <c r="P27">
+        <v>8884</v>
+      </c>
+      <c r="Q27">
+        <v>27362</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>332</v>
+      </c>
+      <c r="W27">
+        <v>301</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>105</v>
+      </c>
+      <c r="Z27">
+        <v>71</v>
+      </c>
+      <c r="AA27">
+        <v>7781</v>
+      </c>
+      <c r="AB27">
+        <v>69132</v>
+      </c>
+      <c r="AC27">
+        <v>6578</v>
+      </c>
+      <c r="AD27">
+        <v>29327</v>
+      </c>
+      <c r="AE27">
+        <v>19870</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="1">
+        <v>1985</v>
+      </c>
+      <c r="B28">
+        <v>2089378</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>67655</v>
+      </c>
+      <c r="E28">
+        <v>1762</v>
+      </c>
+      <c r="F28">
+        <v>165</v>
+      </c>
+      <c r="G28">
+        <v>772238</v>
+      </c>
+      <c r="H28">
+        <v>153206</v>
+      </c>
+      <c r="I28">
+        <v>21368</v>
+      </c>
+      <c r="J28">
+        <v>47824</v>
+      </c>
+      <c r="K28">
+        <v>461975</v>
+      </c>
+      <c r="L28">
+        <v>19261</v>
+      </c>
+      <c r="M28">
+        <v>36999</v>
+      </c>
+      <c r="N28">
+        <v>46159</v>
+      </c>
+      <c r="O28">
+        <v>23931</v>
+      </c>
+      <c r="P28">
+        <v>8741</v>
+      </c>
+      <c r="Q28">
+        <v>26812</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>302</v>
+      </c>
+      <c r="W28">
+        <v>259</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>81</v>
+      </c>
+      <c r="Z28">
+        <v>56</v>
+      </c>
+      <c r="AA28">
+        <v>7757</v>
+      </c>
+      <c r="AB28">
+        <v>74708</v>
+      </c>
+      <c r="AC28">
+        <v>6654</v>
+      </c>
+      <c r="AD28">
+        <v>29484</v>
+      </c>
+      <c r="AE28">
+        <v>19981</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B29">
+        <v>2108384</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>69861</v>
+      </c>
+      <c r="E29">
+        <v>1788</v>
+      </c>
+      <c r="F29">
+        <v>183</v>
+      </c>
+      <c r="G29">
+        <v>766593</v>
+      </c>
+      <c r="H29">
+        <v>149801</v>
+      </c>
+      <c r="I29">
+        <v>21787</v>
+      </c>
+      <c r="J29">
+        <v>47683</v>
+      </c>
+      <c r="K29">
+        <v>469772</v>
+      </c>
+      <c r="L29">
+        <v>18404</v>
+      </c>
+      <c r="M29">
+        <v>37213</v>
+      </c>
+      <c r="N29">
+        <v>48140</v>
+      </c>
+      <c r="O29">
+        <v>22720</v>
+      </c>
+      <c r="P29">
+        <v>8571</v>
+      </c>
+      <c r="Q29">
+        <v>26194</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>347</v>
+      </c>
+      <c r="W29">
+        <v>287</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>80</v>
+      </c>
+      <c r="Z29">
+        <v>60</v>
+      </c>
+      <c r="AA29">
+        <v>7988</v>
+      </c>
+      <c r="AB29">
+        <v>76607</v>
+      </c>
+      <c r="AC29">
+        <v>6484</v>
+      </c>
+      <c r="AD29">
+        <v>30950</v>
+      </c>
+      <c r="AE29">
+        <v>21827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="1">
+        <v>1987</v>
+      </c>
+      <c r="B30">
+        <v>2126342</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>69265</v>
+      </c>
+      <c r="E30">
+        <v>1763</v>
+      </c>
+      <c r="F30">
+        <v>151</v>
+      </c>
+      <c r="G30">
+        <v>761520</v>
+      </c>
+      <c r="H30">
+        <v>149985</v>
+      </c>
+      <c r="I30">
+        <v>22076</v>
+      </c>
+      <c r="J30">
+        <v>46962</v>
+      </c>
+      <c r="K30">
+        <v>477313</v>
+      </c>
+      <c r="L30">
+        <v>18242</v>
+      </c>
+      <c r="M30">
+        <v>38560</v>
+      </c>
+      <c r="N30">
+        <v>48587</v>
+      </c>
+      <c r="O30">
+        <v>22480</v>
+      </c>
+      <c r="P30">
+        <v>8525</v>
+      </c>
+      <c r="Q30">
+        <v>26239</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>307</v>
+      </c>
+      <c r="W30">
+        <v>259</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>99</v>
+      </c>
+      <c r="Z30">
+        <v>43</v>
+      </c>
+      <c r="AA30">
+        <v>8142</v>
+      </c>
+      <c r="AB30">
+        <v>78421</v>
+      </c>
+      <c r="AC30">
+        <v>6367</v>
+      </c>
+      <c r="AD30">
+        <v>30840</v>
+      </c>
+      <c r="AE30">
+        <v>21189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B31">
+        <v>2171196</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>77721</v>
+      </c>
+      <c r="E31">
+        <v>1928</v>
+      </c>
+      <c r="F31">
+        <v>151</v>
+      </c>
+      <c r="G31">
+        <v>766329</v>
+      </c>
+      <c r="H31">
+        <v>150696</v>
+      </c>
+      <c r="I31">
+        <v>22417</v>
+      </c>
+      <c r="J31">
+        <v>48255</v>
+      </c>
+      <c r="K31">
+        <v>485468</v>
+      </c>
+      <c r="L31">
+        <v>18239</v>
+      </c>
+      <c r="M31">
+        <v>40405</v>
+      </c>
+      <c r="N31">
+        <v>49391</v>
+      </c>
+      <c r="O31">
+        <v>22092</v>
+      </c>
+      <c r="P31">
+        <v>8796</v>
+      </c>
+      <c r="Q31">
+        <v>26461</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>306</v>
+      </c>
+      <c r="W31">
+        <v>279</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>85</v>
+      </c>
+      <c r="Z31">
+        <v>78</v>
+      </c>
+      <c r="AA31">
+        <v>8465</v>
+      </c>
+      <c r="AB31">
+        <v>82900</v>
+      </c>
+      <c r="AC31">
+        <v>6444</v>
+      </c>
+      <c r="AD31">
+        <v>30452</v>
+      </c>
+      <c r="AE31">
+        <v>22129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B32">
+        <v>2153859</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>76622</v>
+      </c>
+      <c r="E32">
+        <v>1974</v>
+      </c>
+      <c r="F32">
+        <v>165</v>
+      </c>
+      <c r="G32">
+        <v>735123</v>
+      </c>
+      <c r="H32">
+        <v>145741</v>
+      </c>
+      <c r="I32">
+        <v>21144</v>
+      </c>
+      <c r="J32">
+        <v>47711</v>
+      </c>
+      <c r="K32">
+        <v>496623</v>
+      </c>
+      <c r="L32">
+        <v>18771</v>
+      </c>
+      <c r="M32">
+        <v>46869</v>
+      </c>
+      <c r="N32">
+        <v>47917</v>
+      </c>
+      <c r="O32">
+        <v>19372</v>
+      </c>
+      <c r="P32">
+        <v>8876</v>
+      </c>
+      <c r="Q32">
+        <v>26729</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>32</v>
+      </c>
+      <c r="T32">
+        <v>13</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>339</v>
+      </c>
+      <c r="W32">
+        <v>273</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>105</v>
+      </c>
+      <c r="Z32">
+        <v>71</v>
+      </c>
+      <c r="AA32">
+        <v>8772</v>
+      </c>
+      <c r="AB32">
+        <v>84396</v>
+      </c>
+      <c r="AC32">
+        <v>6468</v>
+      </c>
+      <c r="AD32">
+        <v>30277</v>
+      </c>
+      <c r="AE32">
+        <v>22993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B33">
+        <v>2151890</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>79569</v>
+      </c>
+      <c r="E33">
+        <v>1817</v>
+      </c>
+      <c r="F33">
+        <v>180</v>
+      </c>
+      <c r="G33">
+        <v>721323</v>
+      </c>
+      <c r="H33">
+        <v>144275</v>
+      </c>
+      <c r="I33">
+        <v>20779</v>
+      </c>
+      <c r="J33">
+        <v>45457</v>
+      </c>
+      <c r="K33">
+        <v>505773</v>
+      </c>
+      <c r="L33">
+        <v>17696</v>
+      </c>
+      <c r="M33">
+        <v>47705</v>
+      </c>
+      <c r="N33">
+        <v>47151</v>
+      </c>
+      <c r="O33">
+        <v>18056</v>
+      </c>
+      <c r="P33">
+        <v>8949</v>
+      </c>
+      <c r="Q33">
+        <v>25856</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>66</v>
+      </c>
+      <c r="T33">
+        <v>12</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>415</v>
+      </c>
+      <c r="W33">
+        <v>217</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>106</v>
+      </c>
+      <c r="Z33">
+        <v>66</v>
+      </c>
+      <c r="AA33">
+        <v>9177</v>
+      </c>
+      <c r="AB33">
+        <v>86729</v>
+      </c>
+      <c r="AC33">
+        <v>6193</v>
+      </c>
+      <c r="AD33">
+        <v>30956</v>
+      </c>
+      <c r="AE33">
+        <v>25020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B34">
+        <v>2173060</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>77914</v>
+      </c>
+      <c r="E34">
+        <v>1715</v>
+      </c>
+      <c r="F34">
+        <v>203</v>
+      </c>
+      <c r="G34">
+        <v>722167</v>
+      </c>
+      <c r="H34">
+        <v>143705</v>
+      </c>
+      <c r="I34">
+        <v>21372</v>
+      </c>
+      <c r="J34">
+        <v>46086</v>
+      </c>
+      <c r="K34">
+        <v>515134</v>
+      </c>
+      <c r="L34">
+        <v>16799</v>
+      </c>
+      <c r="M34">
+        <v>48993</v>
+      </c>
+      <c r="N34">
+        <v>43852</v>
+      </c>
+      <c r="O34">
+        <v>17432</v>
+      </c>
+      <c r="P34">
+        <v>8534</v>
+      </c>
+      <c r="Q34">
+        <v>25473</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>27</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>470</v>
+      </c>
+      <c r="W34">
+        <v>200</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>94</v>
+      </c>
+      <c r="Z34">
+        <v>89</v>
+      </c>
+      <c r="AA34">
+        <v>9538</v>
+      </c>
+      <c r="AB34">
+        <v>90720</v>
+      </c>
+      <c r="AC34">
+        <v>6127</v>
+      </c>
+      <c r="AD34">
+        <v>30861</v>
+      </c>
+      <c r="AE34">
+        <v>26616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B35">
+        <v>2179187</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>75767</v>
+      </c>
+      <c r="E35">
+        <v>1710</v>
+      </c>
+      <c r="F35">
+        <v>196</v>
+      </c>
+      <c r="G35">
+        <v>719035</v>
+      </c>
+      <c r="H35">
+        <v>144000</v>
+      </c>
+      <c r="I35">
+        <v>22178</v>
+      </c>
+      <c r="J35">
+        <v>46057</v>
+      </c>
+      <c r="K35">
+        <v>521062</v>
+      </c>
+      <c r="L35">
+        <v>15750</v>
+      </c>
+      <c r="M35">
+        <v>50113</v>
+      </c>
+      <c r="N35">
+        <v>41304</v>
+      </c>
+      <c r="O35">
+        <v>16836</v>
+      </c>
+      <c r="P35">
+        <v>8555</v>
+      </c>
+      <c r="Q35">
+        <v>25306</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>529</v>
+      </c>
+      <c r="W35">
+        <v>201</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>91</v>
+      </c>
+      <c r="Z35">
+        <v>101</v>
+      </c>
+      <c r="AA35">
+        <v>10275</v>
+      </c>
+      <c r="AB35">
+        <v>91992</v>
+      </c>
+      <c r="AC35">
+        <v>6140</v>
+      </c>
+      <c r="AD35">
+        <v>30557</v>
+      </c>
+      <c r="AE35">
+        <v>25577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B36">
+        <v>2271947</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>82869</v>
+      </c>
+      <c r="E36">
+        <v>1636</v>
+      </c>
+      <c r="F36">
+        <v>238</v>
+      </c>
+      <c r="G36">
+        <v>744693</v>
+      </c>
+      <c r="H36">
+        <v>150320</v>
+      </c>
+      <c r="I36">
+        <v>23338</v>
+      </c>
+      <c r="J36">
+        <v>48872</v>
+      </c>
+      <c r="K36">
+        <v>530373</v>
+      </c>
+      <c r="L36">
+        <v>15114</v>
+      </c>
+      <c r="M36">
+        <v>53943</v>
+      </c>
+      <c r="N36">
+        <v>42185</v>
+      </c>
+      <c r="O36">
+        <v>17282</v>
+      </c>
+      <c r="P36">
+        <v>8409</v>
+      </c>
+      <c r="Q36">
+        <v>25246</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>7</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>631</v>
+      </c>
+      <c r="W36">
+        <v>260</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>80</v>
+      </c>
+      <c r="Z36">
+        <v>154</v>
+      </c>
+      <c r="AA36">
+        <v>11252</v>
+      </c>
+      <c r="AB36">
+        <v>101122</v>
+      </c>
+      <c r="AC36">
+        <v>5955</v>
+      </c>
+      <c r="AD36">
+        <v>31164</v>
+      </c>
+      <c r="AE36">
+        <v>26084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B37">
+        <v>2282288</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>81535</v>
+      </c>
+      <c r="E37">
+        <v>1490</v>
+      </c>
+      <c r="F37">
+        <v>318</v>
+      </c>
+      <c r="G37">
+        <v>733620</v>
+      </c>
+      <c r="H37">
+        <v>153494</v>
+      </c>
+      <c r="I37">
+        <v>22991</v>
+      </c>
+      <c r="J37">
+        <v>49198</v>
+      </c>
+      <c r="K37">
+        <v>534785</v>
+      </c>
+      <c r="L37">
+        <v>14502</v>
+      </c>
+      <c r="M37">
+        <v>56751</v>
+      </c>
+      <c r="N37">
+        <v>42791</v>
+      </c>
+      <c r="O37">
+        <v>17124</v>
+      </c>
+      <c r="P37">
+        <v>8228</v>
+      </c>
+      <c r="Q37">
+        <v>25447</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>8</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>747</v>
+      </c>
+      <c r="W37">
+        <v>279</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>79</v>
+      </c>
+      <c r="Z37">
+        <v>192</v>
+      </c>
+      <c r="AA37">
+        <v>11781</v>
+      </c>
+      <c r="AB37">
+        <v>101672</v>
+      </c>
+      <c r="AC37">
+        <v>6095</v>
+      </c>
+      <c r="AD37">
+        <v>31189</v>
+      </c>
+      <c r="AE37">
+        <v>25017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B38">
+        <v>2315251</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>82969</v>
+      </c>
+      <c r="E38">
+        <v>1342</v>
+      </c>
+      <c r="F38">
+        <v>312</v>
+      </c>
+      <c r="G38">
+        <v>738661</v>
+      </c>
+      <c r="H38">
+        <v>158178</v>
+      </c>
+      <c r="I38">
+        <v>23685</v>
+      </c>
+      <c r="J38">
+        <v>50201</v>
+      </c>
+      <c r="K38">
+        <v>538874</v>
+      </c>
+      <c r="L38">
+        <v>13480</v>
+      </c>
+      <c r="M38">
+        <v>59316</v>
+      </c>
+      <c r="N38">
+        <v>43673</v>
+      </c>
+      <c r="O38">
+        <v>16727</v>
+      </c>
+      <c r="P38">
+        <v>8087</v>
+      </c>
+      <c r="Q38">
+        <v>25262</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>6</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>795</v>
+      </c>
+      <c r="W38">
+        <v>277</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>65</v>
+      </c>
+      <c r="Z38">
+        <v>161</v>
+      </c>
+      <c r="AA38">
+        <v>12495</v>
+      </c>
+      <c r="AB38">
+        <v>102943</v>
+      </c>
+      <c r="AC38">
+        <v>5472</v>
+      </c>
+      <c r="AD38">
+        <v>31341</v>
+      </c>
+      <c r="AE38">
+        <v>22981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B39">
+        <v>2318212</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>83774</v>
+      </c>
+      <c r="E39">
+        <v>1209</v>
+      </c>
+      <c r="F39">
+        <v>328</v>
+      </c>
+      <c r="G39">
+        <v>734520</v>
+      </c>
+      <c r="H39">
+        <v>160150</v>
+      </c>
+      <c r="I39">
+        <v>24322</v>
+      </c>
+      <c r="J39">
+        <v>51658</v>
+      </c>
+      <c r="K39">
+        <v>540025</v>
+      </c>
+      <c r="L39">
+        <v>13095</v>
+      </c>
+      <c r="M39">
+        <v>61821</v>
+      </c>
+      <c r="N39">
+        <v>43983</v>
+      </c>
+      <c r="O39">
+        <v>16749</v>
+      </c>
+      <c r="P39">
+        <v>8138</v>
+      </c>
+      <c r="Q39">
+        <v>25084</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>824</v>
+      </c>
+      <c r="W39">
+        <v>292</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>73</v>
+      </c>
+      <c r="Z39">
+        <v>116</v>
+      </c>
+      <c r="AA39">
+        <v>12952</v>
+      </c>
+      <c r="AB39">
+        <v>106081</v>
+      </c>
+      <c r="AC39">
+        <v>5112</v>
+      </c>
+      <c r="AD39">
+        <v>30970</v>
+      </c>
+      <c r="AE39">
+        <v>21058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B40">
+        <v>2317586</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>86508</v>
+      </c>
+      <c r="E40">
+        <v>1173</v>
+      </c>
+      <c r="F40">
+        <v>339</v>
+      </c>
+      <c r="G40">
+        <v>728152</v>
+      </c>
+      <c r="H40">
+        <v>159994</v>
+      </c>
+      <c r="I40">
+        <v>25343</v>
+      </c>
+      <c r="J40">
+        <v>52502</v>
+      </c>
+      <c r="K40">
+        <v>540057</v>
+      </c>
+      <c r="L40">
+        <v>13112</v>
+      </c>
+      <c r="M40">
+        <v>62676</v>
+      </c>
+      <c r="N40">
+        <v>43790</v>
+      </c>
+      <c r="O40">
+        <v>16059</v>
+      </c>
+      <c r="P40">
+        <v>8157</v>
+      </c>
+      <c r="Q40">
+        <v>25215</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>6</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>1026</v>
+      </c>
+      <c r="W40">
+        <v>310</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>63</v>
+      </c>
+      <c r="Z40">
+        <v>85</v>
+      </c>
+      <c r="AA40">
+        <v>13546</v>
+      </c>
+      <c r="AB40">
+        <v>109069</v>
+      </c>
+      <c r="AC40">
+        <v>5127</v>
+      </c>
+      <c r="AD40">
+        <v>30581</v>
+      </c>
+      <c r="AE40">
+        <v>19914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B41">
+        <v>2340708</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>91922</v>
+      </c>
+      <c r="E41">
+        <v>1117</v>
+      </c>
+      <c r="F41">
+        <v>345</v>
+      </c>
+      <c r="G41">
+        <v>726070</v>
+      </c>
+      <c r="H41">
+        <v>158638</v>
+      </c>
+      <c r="I41">
+        <v>26199</v>
+      </c>
+      <c r="J41">
+        <v>54687</v>
+      </c>
+      <c r="K41">
+        <v>542027</v>
+      </c>
+      <c r="L41">
+        <v>13453</v>
+      </c>
+      <c r="M41">
+        <v>64808</v>
+      </c>
+      <c r="N41">
+        <v>43797</v>
+      </c>
+      <c r="O41">
+        <v>15287</v>
+      </c>
+      <c r="P41">
+        <v>8125</v>
+      </c>
+      <c r="Q41">
+        <v>25236</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1059</v>
+      </c>
+      <c r="W41">
+        <v>235</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>45</v>
+      </c>
+      <c r="Z41">
+        <v>95</v>
+      </c>
+      <c r="AA41">
+        <v>14318</v>
+      </c>
+      <c r="AB41">
+        <v>112639</v>
+      </c>
+      <c r="AC41">
+        <v>4706</v>
+      </c>
+      <c r="AD41">
+        <v>30635</v>
+      </c>
+      <c r="AE41">
+        <v>18325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B42">
+        <v>2394871</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>63769</v>
+      </c>
+      <c r="E42">
+        <v>935</v>
+      </c>
+      <c r="F42">
+        <v>97</v>
+      </c>
+      <c r="G42">
+        <v>726312</v>
+      </c>
+      <c r="H42">
+        <v>167891</v>
+      </c>
+      <c r="I42">
+        <v>35554</v>
+      </c>
+      <c r="J42">
+        <v>73555</v>
+      </c>
+      <c r="K42">
+        <v>550373</v>
+      </c>
+      <c r="L42">
+        <v>14275</v>
+      </c>
+      <c r="M42">
+        <v>68462</v>
+      </c>
+      <c r="N42">
+        <v>44408</v>
+      </c>
+      <c r="O42">
+        <v>14985</v>
+      </c>
+      <c r="P42">
+        <v>10419</v>
+      </c>
+      <c r="Q42">
+        <v>26298</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>7</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1109</v>
+      </c>
+      <c r="W42">
+        <v>227</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>33</v>
+      </c>
+      <c r="Z42">
+        <v>30</v>
+      </c>
+      <c r="AA42">
+        <v>39750</v>
+      </c>
+      <c r="AB42">
+        <v>124274</v>
+      </c>
+      <c r="AC42">
+        <v>4611</v>
+      </c>
+      <c r="AD42">
+        <v>31330</v>
+      </c>
+      <c r="AE42">
+        <v>19311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B43">
+        <v>2407193</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>65373</v>
+      </c>
+      <c r="E43">
+        <v>782</v>
+      </c>
+      <c r="F43">
+        <v>65</v>
+      </c>
+      <c r="G43">
+        <v>711966</v>
+      </c>
+      <c r="H43">
+        <v>168194</v>
+      </c>
+      <c r="I43">
+        <v>37284</v>
+      </c>
+      <c r="J43">
+        <v>73001</v>
+      </c>
+      <c r="K43">
+        <v>553679</v>
+      </c>
+      <c r="L43">
+        <v>14097</v>
+      </c>
+      <c r="M43">
+        <v>69366</v>
+      </c>
+      <c r="N43">
+        <v>44765</v>
+      </c>
+      <c r="O43">
+        <v>14396</v>
+      </c>
+      <c r="P43">
+        <v>10631</v>
+      </c>
+      <c r="Q43">
+        <v>26602</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>12</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>1329</v>
+      </c>
+      <c r="W43">
+        <v>211</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>41</v>
+      </c>
+      <c r="Z43">
+        <v>37</v>
+      </c>
+      <c r="AA43">
+        <v>41923</v>
+      </c>
+      <c r="AB43">
+        <v>122118</v>
+      </c>
+      <c r="AC43">
+        <v>4565</v>
+      </c>
+      <c r="AD43">
+        <v>31474</v>
+      </c>
+      <c r="AE43">
+        <v>19113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B44">
+        <v>2419960</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>62085</v>
+      </c>
+      <c r="E44">
+        <v>770</v>
+      </c>
+      <c r="F44">
+        <v>56</v>
+      </c>
+      <c r="G44">
+        <v>701168</v>
+      </c>
+      <c r="H44">
+        <v>164029</v>
+      </c>
+      <c r="I44">
+        <v>39511</v>
+      </c>
+      <c r="J44">
+        <v>75666</v>
+      </c>
+      <c r="K44">
+        <v>554371</v>
+      </c>
+      <c r="L44">
+        <v>13907</v>
+      </c>
+      <c r="M44">
+        <v>71439</v>
+      </c>
+      <c r="N44">
+        <v>44980</v>
+      </c>
+      <c r="O44">
+        <v>14092</v>
+      </c>
+      <c r="P44">
+        <v>10487</v>
+      </c>
+      <c r="Q44">
+        <v>27076</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>17</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>1537</v>
+      </c>
+      <c r="W44">
+        <v>200</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>37</v>
+      </c>
+      <c r="Z44">
+        <v>65</v>
+      </c>
+      <c r="AA44">
+        <v>44028</v>
+      </c>
+      <c r="AB44">
+        <v>123105</v>
+      </c>
+      <c r="AC44">
+        <v>4498</v>
+      </c>
+      <c r="AD44">
+        <v>32973</v>
+      </c>
+      <c r="AE44">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B45">
+        <v>2446796</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>65726</v>
+      </c>
+      <c r="E45">
+        <v>788</v>
+      </c>
+      <c r="F45">
+        <v>93</v>
+      </c>
+      <c r="G45">
+        <v>697943</v>
+      </c>
+      <c r="H45">
+        <v>163123</v>
+      </c>
+      <c r="I45">
+        <v>41009</v>
+      </c>
+      <c r="J45">
+        <v>78679</v>
+      </c>
+      <c r="K45">
+        <v>557821</v>
+      </c>
+      <c r="L45">
+        <v>14279</v>
+      </c>
+      <c r="M45">
+        <v>73315</v>
+      </c>
+      <c r="N45">
+        <v>46263</v>
+      </c>
+      <c r="O45">
+        <v>13827</v>
+      </c>
+      <c r="P45">
+        <v>10725</v>
+      </c>
+      <c r="Q45">
+        <v>27290</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>18</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>2467</v>
+      </c>
+      <c r="W45">
+        <v>163</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>41</v>
+      </c>
+      <c r="Z45">
+        <v>53</v>
+      </c>
+      <c r="AA45">
+        <v>46906</v>
+      </c>
+      <c r="AB45">
+        <v>124906</v>
+      </c>
+      <c r="AC45">
+        <v>4084</v>
+      </c>
+      <c r="AD45">
+        <v>34063</v>
+      </c>
+      <c r="AE45">
+        <v>20322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B46">
+        <v>2452154</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>65238</v>
+      </c>
+      <c r="E46">
+        <v>720</v>
+      </c>
+      <c r="F46">
+        <v>98</v>
+      </c>
+      <c r="G46">
+        <v>686160</v>
+      </c>
+      <c r="H46">
+        <v>158170</v>
+      </c>
+      <c r="I46">
+        <v>42497</v>
+      </c>
+      <c r="J46">
+        <v>81553</v>
+      </c>
+      <c r="K46">
+        <v>557531</v>
+      </c>
+      <c r="L46">
+        <v>14411</v>
+      </c>
+      <c r="M46">
+        <v>74289</v>
+      </c>
+      <c r="N46">
+        <v>46008</v>
+      </c>
+      <c r="O46">
+        <v>13057</v>
+      </c>
+      <c r="P46">
+        <v>10565</v>
+      </c>
+      <c r="Q46">
+        <v>27540</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>11</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>3092</v>
+      </c>
+      <c r="W46">
+        <v>163</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>34</v>
+      </c>
+      <c r="Z46">
+        <v>41</v>
+      </c>
+      <c r="AA46">
+        <v>50386</v>
+      </c>
+      <c r="AB46">
+        <v>126480</v>
+      </c>
+      <c r="AC46">
+        <v>3920</v>
+      </c>
+      <c r="AD46">
+        <v>33917</v>
+      </c>
+      <c r="AE46">
+        <v>20474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B47">
+        <v>2401400</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>59726</v>
+      </c>
+      <c r="E47">
+        <v>661</v>
+      </c>
+      <c r="F47">
+        <v>111</v>
+      </c>
+      <c r="G47">
+        <v>653605</v>
+      </c>
+      <c r="H47">
+        <v>150426</v>
+      </c>
+      <c r="I47">
+        <v>42512</v>
+      </c>
+      <c r="J47">
+        <v>84910</v>
+      </c>
+      <c r="K47">
+        <v>554470</v>
+      </c>
+      <c r="L47">
+        <v>14234</v>
+      </c>
+      <c r="M47">
+        <v>73221</v>
+      </c>
+      <c r="N47">
+        <v>46003</v>
+      </c>
+      <c r="O47">
+        <v>11864</v>
+      </c>
+      <c r="P47">
+        <v>10538</v>
+      </c>
+      <c r="Q47">
+        <v>27058</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>16</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>4361</v>
+      </c>
+      <c r="W47">
+        <v>138</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>43</v>
+      </c>
+      <c r="Z47">
+        <v>33</v>
+      </c>
+      <c r="AA47">
+        <v>51762</v>
+      </c>
+      <c r="AB47">
+        <v>122096</v>
+      </c>
+      <c r="AC47">
+        <v>3692</v>
+      </c>
+      <c r="AD47">
+        <v>34892</v>
+      </c>
+      <c r="AE47">
+        <v>20112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B48">
+        <v>2452506</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>63098</v>
+      </c>
+      <c r="E48">
+        <v>653</v>
+      </c>
+      <c r="F48">
+        <v>132</v>
+      </c>
+      <c r="G48">
+        <v>653301</v>
+      </c>
+      <c r="H48">
+        <v>143984</v>
+      </c>
+      <c r="I48">
+        <v>43944</v>
+      </c>
+      <c r="J48">
+        <v>91216</v>
+      </c>
+      <c r="K48">
+        <v>559962</v>
+      </c>
+      <c r="L48">
+        <v>14577</v>
+      </c>
+      <c r="M48">
+        <v>75207</v>
+      </c>
+      <c r="N48">
+        <v>46423</v>
+      </c>
+      <c r="O48">
+        <v>11848</v>
+      </c>
+      <c r="P48">
+        <v>10457</v>
+      </c>
+      <c r="Q48">
+        <v>27589</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>31</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>5672</v>
+      </c>
+      <c r="W48">
+        <v>124</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>47</v>
+      </c>
+      <c r="Z48">
+        <v>29</v>
+      </c>
+      <c r="AA48">
+        <v>54289</v>
+      </c>
+      <c r="AB48">
+        <v>131060</v>
+      </c>
+      <c r="AC48">
+        <v>3488</v>
+      </c>
+      <c r="AD48">
+        <v>35183</v>
+      </c>
+      <c r="AE48">
+        <v>20945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B49">
+        <v>2430725</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>56391</v>
+      </c>
+      <c r="E49">
+        <v>658</v>
+      </c>
+      <c r="F49">
+        <v>149</v>
+      </c>
+      <c r="G49">
+        <v>632861</v>
+      </c>
+      <c r="H49">
+        <v>137460</v>
+      </c>
+      <c r="I49">
+        <v>45386</v>
+      </c>
+      <c r="J49">
+        <v>95553</v>
+      </c>
+      <c r="K49">
+        <v>560537</v>
+      </c>
+      <c r="L49">
+        <v>14468</v>
+      </c>
+      <c r="M49">
+        <v>72525</v>
+      </c>
+      <c r="N49">
+        <v>46297</v>
+      </c>
+      <c r="O49">
+        <v>8660</v>
+      </c>
+      <c r="P49">
+        <v>10526</v>
+      </c>
+      <c r="Q49">
+        <v>27616</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>10</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>6646</v>
+      </c>
+      <c r="W49">
+        <v>106</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>38</v>
+      </c>
+      <c r="Z49">
+        <v>25</v>
+      </c>
+      <c r="AA49">
+        <v>53734</v>
+      </c>
+      <c r="AB49">
+        <v>124724</v>
+      </c>
+      <c r="AC49">
+        <v>3338</v>
+      </c>
+      <c r="AD49">
+        <v>35915</v>
+      </c>
+      <c r="AE49">
+        <v>21473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B50">
+        <v>2428343</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>52783</v>
+      </c>
+      <c r="E50">
+        <v>561</v>
+      </c>
+      <c r="F50">
+        <v>127</v>
+      </c>
+      <c r="G50">
+        <v>617270</v>
+      </c>
+      <c r="H50">
+        <v>136344</v>
+      </c>
+      <c r="I50">
+        <v>46495</v>
+      </c>
+      <c r="J50">
+        <v>99400</v>
+      </c>
+      <c r="K50">
+        <v>563569</v>
+      </c>
+      <c r="L50">
+        <v>14650</v>
+      </c>
+      <c r="M50">
+        <v>71459</v>
+      </c>
+      <c r="N50">
+        <v>44852</v>
+      </c>
+      <c r="O50">
+        <v>8239</v>
+      </c>
+      <c r="P50">
+        <v>10459</v>
+      </c>
+      <c r="Q50">
+        <v>29253</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>9</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>6761</v>
+      </c>
+      <c r="W50">
+        <v>87</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>42</v>
+      </c>
+      <c r="Z50">
+        <v>32</v>
+      </c>
+      <c r="AA50">
+        <v>54862</v>
+      </c>
+      <c r="AB50">
+        <v>128076</v>
+      </c>
+      <c r="AC50">
+        <v>3055</v>
+      </c>
+      <c r="AD50">
+        <v>37346</v>
+      </c>
+      <c r="AE50">
+        <v>21388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B51">
+        <v>2476811</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>56360</v>
+      </c>
+      <c r="E51">
+        <v>585</v>
+      </c>
+      <c r="F51">
+        <v>134</v>
+      </c>
+      <c r="G51">
+        <v>618140</v>
+      </c>
+      <c r="H51">
+        <v>134537</v>
+      </c>
+      <c r="I51">
+        <v>48277</v>
+      </c>
+      <c r="J51">
+        <v>100876</v>
+      </c>
+      <c r="K51">
+        <v>566215</v>
+      </c>
+      <c r="L51">
+        <v>13983</v>
+      </c>
+      <c r="M51">
+        <v>70649</v>
+      </c>
+      <c r="N51">
+        <v>40677</v>
+      </c>
+      <c r="O51">
+        <v>7836</v>
+      </c>
+      <c r="P51">
+        <v>10332</v>
+      </c>
+      <c r="Q51">
+        <v>30078</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>20</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>7881</v>
+      </c>
+      <c r="W51">
+        <v>102</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>34</v>
+      </c>
+      <c r="Z51">
+        <v>28</v>
+      </c>
+      <c r="AA51">
+        <v>58282</v>
+      </c>
+      <c r="AB51">
+        <v>141246</v>
+      </c>
+      <c r="AC51">
+        <v>3083</v>
+      </c>
+      <c r="AD51">
+        <v>38850</v>
+      </c>
+      <c r="AE51">
+        <v>20844</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B52">
+        <v>2441219</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>52217</v>
+      </c>
+      <c r="E52">
+        <v>537</v>
+      </c>
+      <c r="F52">
+        <v>2759</v>
+      </c>
+      <c r="G52">
+        <v>600435</v>
+      </c>
+      <c r="H52">
+        <v>129174</v>
+      </c>
+      <c r="I52">
+        <v>48959</v>
+      </c>
+      <c r="J52">
+        <v>99171</v>
+      </c>
+      <c r="K52">
+        <v>568226</v>
+      </c>
+      <c r="L52">
+        <v>13150</v>
+      </c>
+      <c r="M52">
+        <v>68776</v>
+      </c>
+      <c r="N52">
+        <v>36993</v>
+      </c>
+      <c r="O52">
+        <v>7380</v>
+      </c>
+      <c r="P52">
+        <v>9925</v>
+      </c>
+      <c r="Q52">
+        <v>30627</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <v>15</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>10257</v>
+      </c>
+      <c r="W52">
+        <v>100</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>34</v>
+      </c>
+      <c r="Z52">
+        <v>39</v>
+      </c>
+      <c r="AA52">
+        <v>59009</v>
+      </c>
+      <c r="AB52">
+        <v>137473</v>
+      </c>
+      <c r="AC52">
+        <v>2965</v>
+      </c>
+      <c r="AD52">
+        <v>39577</v>
+      </c>
+      <c r="AE52">
+        <v>19677</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B53">
+        <v>2472542</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>49934</v>
+      </c>
+      <c r="E53">
+        <v>575</v>
+      </c>
+      <c r="F53">
+        <v>2745</v>
+      </c>
+      <c r="G53">
+        <v>598729</v>
+      </c>
+      <c r="H53">
+        <v>129836</v>
+      </c>
+      <c r="I53">
+        <v>50508</v>
+      </c>
+      <c r="J53">
+        <v>104396</v>
+      </c>
+      <c r="K53">
+        <v>575388</v>
+      </c>
+      <c r="L53">
+        <v>12156</v>
+      </c>
+      <c r="M53">
+        <v>69154</v>
+      </c>
+      <c r="N53">
+        <v>36020</v>
+      </c>
+      <c r="O53">
+        <v>7233</v>
+      </c>
+      <c r="P53">
+        <v>9696</v>
+      </c>
+      <c r="Q53">
+        <v>31971</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>26</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>10290</v>
+      </c>
+      <c r="W53">
+        <v>80</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>28</v>
+      </c>
+      <c r="Z53">
+        <v>29</v>
+      </c>
+      <c r="AA53">
+        <v>60449</v>
+      </c>
+      <c r="AB53">
+        <v>138224</v>
+      </c>
+      <c r="AC53">
+        <v>2983</v>
+      </c>
+      <c r="AD53">
+        <v>40905</v>
+      </c>
+      <c r="AE53">
+        <v>18995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B54">
+        <v>2519842</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>53674</v>
+      </c>
+      <c r="E54">
+        <v>543</v>
+      </c>
+      <c r="F54">
+        <v>2746</v>
+      </c>
+      <c r="G54">
+        <v>597732</v>
+      </c>
+      <c r="H54">
+        <v>129291</v>
+      </c>
+      <c r="I54">
+        <v>45635</v>
+      </c>
+      <c r="J54">
+        <v>109102</v>
+      </c>
+      <c r="K54">
+        <v>577320</v>
+      </c>
+      <c r="L54">
+        <v>12076</v>
+      </c>
+      <c r="M54">
+        <v>73916</v>
+      </c>
+      <c r="N54">
+        <v>35931</v>
+      </c>
+      <c r="O54">
+        <v>6949</v>
+      </c>
+      <c r="P54">
+        <v>9722</v>
+      </c>
+      <c r="Q54">
+        <v>33733</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>7</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>11053</v>
+      </c>
+      <c r="W54">
+        <v>87</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>45</v>
+      </c>
+      <c r="Z54">
+        <v>37</v>
+      </c>
+      <c r="AA54">
+        <v>61617</v>
+      </c>
+      <c r="AB54">
+        <v>143106</v>
+      </c>
+      <c r="AC54">
+        <v>3005</v>
+      </c>
+      <c r="AD54">
+        <v>42259</v>
+      </c>
+      <c r="AE54">
+        <v>19296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B55">
+        <v>2547864</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>50701</v>
+      </c>
+      <c r="E55">
+        <v>519</v>
+      </c>
+      <c r="F55">
+        <v>2613</v>
+      </c>
+      <c r="G55">
+        <v>600926</v>
+      </c>
+      <c r="H55">
+        <v>128944</v>
+      </c>
+      <c r="I55">
+        <v>45671</v>
+      </c>
+      <c r="J55">
+        <v>111260</v>
+      </c>
+      <c r="K55">
+        <v>583320</v>
+      </c>
+      <c r="L55">
+        <v>11968</v>
+      </c>
+      <c r="M55">
+        <v>74010</v>
+      </c>
+      <c r="N55">
+        <v>37063</v>
+      </c>
+      <c r="O55">
+        <v>6950</v>
+      </c>
+      <c r="P55">
+        <v>9665</v>
+      </c>
+      <c r="Q55">
+        <v>35054</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <v>17</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>10632</v>
+      </c>
+      <c r="W55">
+        <v>76</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>37</v>
+      </c>
+      <c r="Z55">
+        <v>19</v>
+      </c>
+      <c r="AA55">
+        <v>64330</v>
+      </c>
+      <c r="AB55">
+        <v>143656</v>
+      </c>
+      <c r="AC55">
+        <v>2900</v>
+      </c>
+      <c r="AD55">
+        <v>43477</v>
+      </c>
+      <c r="AE55">
+        <v>19933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B56">
+        <v>2601452</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>56895</v>
+      </c>
+      <c r="E56">
+        <v>561</v>
+      </c>
+      <c r="F56">
+        <v>2672</v>
+      </c>
+      <c r="G56">
+        <v>612266</v>
+      </c>
+      <c r="H56">
+        <v>129374</v>
+      </c>
+      <c r="I56">
+        <v>47151</v>
+      </c>
+      <c r="J56">
+        <v>115921</v>
+      </c>
+      <c r="K56">
+        <v>585536</v>
+      </c>
+      <c r="L56">
+        <v>12123</v>
+      </c>
+      <c r="M56">
+        <v>75663</v>
+      </c>
+      <c r="N56">
+        <v>36000</v>
+      </c>
+      <c r="O56">
+        <v>6690</v>
+      </c>
+      <c r="P56">
+        <v>9605</v>
+      </c>
+      <c r="Q56">
+        <v>36513</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>12</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>10601</v>
+      </c>
+      <c r="W56">
+        <v>59</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>49</v>
+      </c>
+      <c r="Z56">
+        <v>29</v>
+      </c>
+      <c r="AA56">
+        <v>68042</v>
+      </c>
+      <c r="AB56">
+        <v>149392</v>
+      </c>
+      <c r="AC56">
+        <v>2995</v>
+      </c>
+      <c r="AD56">
+        <v>44197</v>
+      </c>
+      <c r="AE56">
+        <v>19481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B57">
+        <v>2631171</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>54642</v>
+      </c>
+      <c r="E57">
+        <v>498</v>
+      </c>
+      <c r="F57">
+        <v>2409</v>
+      </c>
+      <c r="G57">
+        <v>615588</v>
+      </c>
+      <c r="H57">
+        <v>133516</v>
+      </c>
+      <c r="I57">
+        <v>48179</v>
+      </c>
+      <c r="J57">
+        <v>122002</v>
+      </c>
+      <c r="K57">
+        <v>592466</v>
+      </c>
+      <c r="L57">
+        <v>11943</v>
+      </c>
+      <c r="M57">
+        <v>76590</v>
+      </c>
+      <c r="N57">
+        <v>36055</v>
+      </c>
+      <c r="O57">
+        <v>6363</v>
+      </c>
+      <c r="P57">
+        <v>9636</v>
+      </c>
+      <c r="Q57">
+        <v>38266</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>14</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>9784</v>
+      </c>
+      <c r="W57">
+        <v>44</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>43</v>
+      </c>
+      <c r="Z57">
+        <v>23</v>
+      </c>
+      <c r="AA57">
+        <v>69087</v>
+      </c>
+      <c r="AB57">
+        <v>147299</v>
+      </c>
+      <c r="AC57">
+        <v>3045</v>
+      </c>
+      <c r="AD57">
+        <v>45451</v>
+      </c>
+      <c r="AE57">
+        <v>18799</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B58">
+        <v>2718198</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>57152</v>
+      </c>
+      <c r="E58">
+        <v>479</v>
+      </c>
+      <c r="F58">
+        <v>2458</v>
+      </c>
+      <c r="G58">
+        <v>635310</v>
+      </c>
+      <c r="H58">
+        <v>140778</v>
+      </c>
+      <c r="I58">
+        <v>50016</v>
+      </c>
+      <c r="J58">
+        <v>132039</v>
+      </c>
+      <c r="K58">
+        <v>596730</v>
+      </c>
+      <c r="L58">
+        <v>11753</v>
+      </c>
+      <c r="M58">
+        <v>79622</v>
+      </c>
+      <c r="N58">
+        <v>38514</v>
+      </c>
+      <c r="O58">
+        <v>6095</v>
+      </c>
+      <c r="P58">
+        <v>10048</v>
+      </c>
+      <c r="Q58">
+        <v>40428</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>7</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>10074</v>
+      </c>
+      <c r="W58">
+        <v>43</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>45</v>
+      </c>
+      <c r="Z58">
+        <v>19</v>
+      </c>
+      <c r="AA58">
+        <v>74078</v>
+      </c>
+      <c r="AB58">
+        <v>155305</v>
+      </c>
+      <c r="AC58">
+        <v>3067</v>
+      </c>
+      <c r="AD58">
+        <v>46999</v>
+      </c>
+      <c r="AE58">
+        <v>20869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B59">
+        <v>2749864</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>51386</v>
+      </c>
+      <c r="E59">
+        <v>533</v>
+      </c>
+      <c r="F59">
+        <v>2365</v>
+      </c>
+      <c r="G59">
+        <v>636708</v>
+      </c>
+      <c r="H59">
+        <v>142631</v>
+      </c>
+      <c r="I59">
+        <v>50090</v>
+      </c>
+      <c r="J59">
+        <v>145216</v>
+      </c>
+      <c r="K59">
+        <v>598817</v>
+      </c>
+      <c r="L59">
+        <v>11535</v>
+      </c>
+      <c r="M59">
+        <v>80144</v>
+      </c>
+      <c r="N59">
+        <v>41070</v>
+      </c>
+      <c r="O59">
+        <v>5737</v>
+      </c>
+      <c r="P59">
+        <v>10153</v>
+      </c>
+      <c r="Q59">
+        <v>40655</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>11</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>9336</v>
+      </c>
+      <c r="W59">
+        <v>37</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>41</v>
+      </c>
+      <c r="Z59">
+        <v>31</v>
+      </c>
+      <c r="AA59">
+        <v>77165</v>
+      </c>
+      <c r="AB59">
+        <v>154861</v>
+      </c>
+      <c r="AC59">
+        <v>3215</v>
+      </c>
+      <c r="AD59">
+        <v>48051</v>
+      </c>
+      <c r="AE59">
+        <v>22798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="1">
         <v>2017</v>
       </c>
-      <c r="B2">
+      <c r="B60">
         <v>2820034</v>
       </c>
-      <c r="C2">
+      <c r="C60">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D60">
         <v>55749</v>
       </c>
-      <c r="E2">
+      <c r="E60">
         <v>522</v>
       </c>
-      <c r="F2">
+      <c r="F60">
         <v>2463</v>
       </c>
-      <c r="G2">
+      <c r="G60">
         <v>649181</v>
       </c>
-      <c r="H2">
+      <c r="H60">
         <v>146894</v>
       </c>
-      <c r="I2">
+      <c r="I60">
         <v>50693</v>
       </c>
-      <c r="J2">
-        <v>130570</v>
-      </c>
-      <c r="K2">
+      <c r="J60">
+        <v>153526</v>
+      </c>
+      <c r="K60">
         <v>600032</v>
       </c>
-      <c r="L2">
+      <c r="L60">
         <v>11152</v>
       </c>
-      <c r="M2">
+      <c r="M60">
         <v>83711</v>
       </c>
-      <c r="N2">
-        <v>40537</v>
-      </c>
-      <c r="O2">
+      <c r="N60">
+        <v>40971</v>
+      </c>
+      <c r="O60">
         <v>5550</v>
       </c>
-      <c r="P2">
+      <c r="P60">
         <v>9943</v>
       </c>
-      <c r="Q2">
+      <c r="Q60">
         <v>41874</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
         <v>9</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
         <v>8813</v>
       </c>
-      <c r="W2">
+      <c r="W60">
         <v>31</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
         <v>64</v>
       </c>
-      <c r="Z2">
+      <c r="Z60">
         <v>31</v>
       </c>
-      <c r="AA2">
-        <v>35345</v>
-      </c>
-      <c r="AB2">
+      <c r="AA60">
+        <v>83087</v>
+      </c>
+      <c r="AB60">
         <v>160498</v>
       </c>
-      <c r="AC2">
+      <c r="AC60">
         <v>3359</v>
       </c>
-      <c r="AD2">
-        <v>47353</v>
-      </c>
-      <c r="AE2">
-        <v>20225</v>
+      <c r="AD60">
+        <v>50409</v>
+      </c>
+      <c r="AE60">
+        <v>23107</v>
       </c>
     </row>
   </sheetData>
